--- a/excercises/excercises/10.PVT.xlsx
+++ b/excercises/excercises/10.PVT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B884E3-261B-4BD9-B658-1D2986D92DF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE12D67-8B76-4523-BC94-A59935F6E9B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1575" windowWidth="28800" windowHeight="15330" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="164">
   <si>
     <t>P</t>
   </si>
@@ -622,31 +621,6 @@
   </si>
   <si>
     <r>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>/т</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>T</t>
     </r>
     <r>
@@ -861,6 +835,35 @@
   <si>
     <t>PVT строка</t>
   </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/т</t>
+    </r>
+  </si>
+  <si>
+    <t>Bg</t>
+  </si>
 </sst>
 </file>
 
@@ -955,12 +958,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1018,8 +1015,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1044,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1104,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,54 +1118,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,6 +1156,27 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4752,7 +4764,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>Плотность нефти, сП</a:t>
+                  <a:t>Плотность нефти, кг/м3</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -5320,7 +5332,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>Плотность газа, сП</a:t>
+                  <a:t>Плотность газа, кг/м3</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -5896,7 +5908,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>Плотность воды, сП</a:t>
+                  <a:t>Плотность воды, кг/м3</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -5949,6 +5961,594 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="403459456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Объемный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> коэффициент газа </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Bg </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>от давления</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12800614540425814"/>
+          <c:y val="0.12115779913539503"/>
+          <c:w val="0.82843894899536319"/>
+          <c:h val="0.69957118802381801"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PVT!$L$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PVT!$B$24:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PVT!$L$24:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1.2085683358332402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24101875117987956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12016940975763117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9853521120570283E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.986474759953436E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9991336924995159E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.513280427885951E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.227337069167502E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0410003708211005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1143114656344441E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1732331538435649E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4693715689981757E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9331937177080239E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.521360478155225E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2059473167393438E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9687012805733205E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7978309345262944E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.6861678096978641E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6301271763016872E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6291763789979403E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6856635886965391E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8049421044987165E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9957792629286941E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.2710821000251764E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.6490148923786987E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.1546350797342066E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0D4-49AB-9EAD-FDF57E8DFC79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403460608"/>
+        <c:axId val="405286272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="403460608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление, атм</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405286272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="405286272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Объемный коэффициент газа </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Bg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>, м3/м3</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403460608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7787,8 +8387,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -8247,7 +8847,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -8944,6 +9544,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>36740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>209313</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114656</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99011A40-0333-4FF0-97FE-4326DF1D6CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8956,6 +9594,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
+      <definedName name="PVT_Bg_m3m3"/>
       <definedName name="PVT_Bo_m3m3"/>
       <definedName name="PVT_encode_string"/>
       <definedName name="PVT_Mug_cP"/>
@@ -10699,6 +11338,292 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист13"/>
@@ -10735,29 +11660,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="V2" s="20" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="V2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
     </row>
     <row r="3" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -66470,8 +67395,8 @@
   </sheetPr>
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -66490,10 +67415,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -66502,7 +67427,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -66511,178 +67436,178 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="5">
         <v>0.86</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="23">
+      <c r="D7" s="10"/>
+      <c r="E7" s="22">
         <f>gamma_oil_*1000</f>
         <v>860</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>150</v>
+      <c r="F7" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="23">
+      <c r="D8" s="10"/>
+      <c r="E8" s="22">
         <f>gamma_wat_*1000</f>
         <v>1000</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>150</v>
+      <c r="F8" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="5">
         <v>0.81</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="23">
+      <c r="D9" s="10"/>
+      <c r="E9" s="22">
         <f>gamma_gas_*1.22</f>
         <v>0.98820000000000008</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>150</v>
+      <c r="F9" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C10" s="5">
         <v>80</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E10" s="24">
         <f>Rsb_/gamma_oil_</f>
         <v>93.023255813953483</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>145</v>
+      <c r="F10" s="23" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="5">
         <v>80</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E11" s="24">
         <f>Rsb_/gamma_oil_</f>
         <v>93.023255813953483</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>145</v>
+      <c r="F11" s="23" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
-        <v>147</v>
+      <c r="B12" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C12" s="5">
         <v>120</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E12" s="24">
         <f>Pb_*1.01325/10</f>
         <v>12.159000000000001</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="23" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>146</v>
+      <c r="B13" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="24">
         <f>Tres_*9/5+32</f>
         <v>212</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
-        <v>148</v>
+      <c r="B14" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="C14" s="5">
         <v>1.2</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14" t="s">
-        <v>149</v>
+      <c r="B15" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="22" t="str">
+      <c r="B17" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="18" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.810;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+        <v>gamma_gas:0,810;gamma_oil:0,860;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -66699,1103 +67624,1210 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="H23" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="I23" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>160</v>
+      <c r="L23" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18">
+      <c r="B24" s="16">
         <v>1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <v>80</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="19">
         <f>[1]!PVT_Rs_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.27349174723217989</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="20">
         <f>[1]!PVT_Bo_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0374688976697879</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="19">
         <f>[1]!PVT_Muo_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4463442264242894</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="21">
         <f>[1]!PVT_Mug_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2059353211390567E-2</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="20">
         <f>[1]!PVT_Muw_cP(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33586886209810729</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="19">
         <f>[1]!PVT_Rhog_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.81937733452615791</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="19">
         <f>[1]!PVT_Rhow_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.56653980677311</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>829.20137950637934</v>
       </c>
+      <c r="L24" s="28">
+        <f>[1]!PVT_Bg_m3m3(B24,C24,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.2085683358332402</v>
+      </c>
     </row>
     <row r="25" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <v>5</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <f>C24</f>
         <v>80</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="19">
         <f>[1]!PVT_Rs_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8989088169782065</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="20">
         <f>[1]!PVT_Bo_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0401369210362343</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="19">
         <f>[1]!PVT_Muo_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.2336351614840253</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="21">
         <f>[1]!PVT_Mug_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2107192761995657E-2</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="20">
         <f>[1]!PVT_Muw_cP(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3366698582445789</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="19">
         <f>[1]!PVT_Rhog_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.1237052923205804</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="19">
         <f>[1]!PVT_Rhow_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.6078507425874</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>828.62082775768931</v>
       </c>
+      <c r="L25" s="28">
+        <f>[1]!PVT_Bg_m3m3(B25,C25,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>0.24101875117987956</v>
+      </c>
     </row>
     <row r="26" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18">
+      <c r="B26" s="16">
         <v>10</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <f t="shared" ref="C26:C49" si="0">C25</f>
         <v>80</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="19">
         <f>[1]!PVT_Rs_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.3746592004508686</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="20">
         <f>[1]!PVT_Bo_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0442352637125814</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="19">
         <f>[1]!PVT_Muo_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.9618585411030036</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="21">
         <f>[1]!PVT_Mug_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2187318955247543E-2</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="20">
         <f>[1]!PVT_Muw_cP(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33768124309210917</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="19">
         <f>[1]!PVT_Rhog_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>8.3110289855037642</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="19">
         <f>[1]!PVT_Rhow_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.66190643699338</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>827.7148762958318</v>
       </c>
+      <c r="L26" s="28">
+        <f>[1]!PVT_Bg_m3m3(B26,C26,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>0.12016940975763117</v>
+      </c>
     </row>
     <row r="27" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <v>20</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="19">
         <f>[1]!PVT_Rs_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>10.078231744978554</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="20">
         <f>[1]!PVT_Bo_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.053826346244561</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="19">
         <f>[1]!PVT_Muo_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.498636943003921</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="21">
         <f>[1]!PVT_Mug_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.238888590743391E-2</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="20">
         <f>[1]!PVT_Muw_cP(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33973781166863876</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="19">
         <f>[1]!PVT_Rhog_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>16.846534268689066</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="19">
         <f>[1]!PVT_Rhow_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>970.77807803228427</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>825.53751805101138</v>
       </c>
+      <c r="L27" s="28">
+        <f>[1]!PVT_Bg_m3m3(B27,C27,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.9853521120570283E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <v>40</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="19">
         <f>[1]!PVT_Rs_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>23.217981207547599</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <f>[1]!PVT_Bo_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0766280968933539</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="19">
         <f>[1]!PVT_Muo_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8766510716147229</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="21">
         <f>[1]!PVT_Mug_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.2908515352492692E-2</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="20">
         <f>[1]!PVT_Muw_cP(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34398614434757446</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="19">
         <f>[1]!PVT_Rhog_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>34.342622955856108</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="19">
         <f>[1]!PVT_Rhow_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.04268997016459</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>820.13090939877736</v>
       </c>
+      <c r="L28" s="28">
+        <f>[1]!PVT_Bg_m3m3(B28,C28,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>2.986474759953436E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <v>60</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="19">
         <f>[1]!PVT_Rs_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>37.83017333901892</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="20">
         <f>[1]!PVT_Bo_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1029740938417225</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="19">
         <f>[1]!PVT_Muo_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5004470360892632</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="21">
         <f>[1]!PVT_Mug_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.3546588499853221E-2</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="20">
         <f>[1]!PVT_Muw_cP(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34841473772767878</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="19">
         <f>[1]!PVT_Rhog_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>52.021157916412513</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="19">
         <f>[1]!PVT_Rhow_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.35038666714604</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.65090481543893</v>
       </c>
+      <c r="L29" s="28">
+        <f>[1]!PVT_Bg_m3m3(B29,C29,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.9991336924995159E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <v>80</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="19">
         <f>[1]!PVT_Rs_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>53.489011266547386</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="20">
         <f>[1]!PVT_Bo_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1321830324865976</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="19">
         <f>[1]!PVT_Muo_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2534003305959938</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="21">
         <f>[1]!PVT_Mug_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.4277475447539722E-2</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="20">
         <f>[1]!PVT_Muw_cP(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.35302359180895171</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="19">
         <f>[1]!PVT_Rhog_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.493695380599092</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="19">
         <f>[1]!PVT_Rhow_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>971.70124991871342</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>806.34620826021182</v>
       </c>
+      <c r="L30" s="28">
+        <f>[1]!PVT_Bg_m3m3(B30,C30,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.513280427885951E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="18">
+      <c r="B31" s="16">
         <v>100</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="19">
         <f>[1]!PVT_Rs_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>69.975212465342153</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="20">
         <f>[1]!PVT_Bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1638737482417305</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="19">
         <f>[1]!PVT_Muo_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0798066537745366</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="21">
         <f>[1]!PVT_Mug_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5081559965179573E-2</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="20">
         <f>[1]!PVT_Muw_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3578127065913933</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="19">
         <f>[1]!PVT_Rhog_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>86.467193698138104</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="19">
         <f>[1]!PVT_Rhow_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.09537309020902</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>798.40778454676195</v>
       </c>
+      <c r="L31" s="28">
+        <f>[1]!PVT_Bg_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.227337069167502E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18">
+      <c r="B32" s="16">
         <v>120</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="19">
         <f>[1]!PVT_Rs_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="20">
         <f>[1]!PVT_Bo_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1807475652945436</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="19">
         <f>[1]!PVT_Muo_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0142345648019659</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="21">
         <f>[1]!PVT_Mug_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.5942331647534887E-2</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="20">
         <f>[1]!PVT_Muw_cP(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36278208207500345</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="19">
         <f>[1]!PVT_Rhog_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>102.74696504047166</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="19">
         <f>[1]!PVT_Rhow_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>972.53286117907339</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>795.3996159761042</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="18">
+      <c r="L32" s="28">
+        <f>[1]!PVT_Bg_m3m3(B32,C32,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>1.0410003708211005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
         <v>140</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="19">
         <f>[1]!PVT_Rs_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="20">
         <f>[1]!PVT_Bo_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1756639894080549</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="19">
         <f>[1]!PVT_Muo_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0511429363265428</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="21">
         <f>[1]!PVT_Mug_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.6846675130245223E-2</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="20">
         <f>[1]!PVT_Muw_cP(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36793171825978227</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="19">
         <f>[1]!PVT_Rhog_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>118.23508091041251</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="19">
         <f>[1]!PVT_Rhow_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.01383088495345</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K33" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>798.8389271605306</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="18">
+      <c r="L33" s="28">
+        <f>[1]!PVT_Bg_m3m3(B33,C33,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>9.1143114656344441E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="16">
         <v>160</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="19">
         <f>[1]!PVT_Rs_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="20">
         <f>[1]!PVT_Bo_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1718656758425399</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="19">
         <f>[1]!PVT_Muo_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0936885546910942</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="21">
         <f>[1]!PVT_Mug_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.778627391722987E-2</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="20">
         <f>[1]!PVT_Muw_cP(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3732616151457297</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="19">
         <f>[1]!PVT_Rhog_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>132.92865197241386</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="19">
         <f>[1]!PVT_Rhow_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>973.53841068777274</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>801.42816652152976</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18">
+      <c r="L34" s="28">
+        <f>[1]!PVT_Bg_m3m3(B34,C34,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>8.1732331538435649E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="16">
         <v>180</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="19">
         <f>[1]!PVT_Rs_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="20">
         <f>[1]!PVT_Bo_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1689199180055034</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="19">
         <f>[1]!PVT_Muo_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1413435273675852</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="21">
         <f>[1]!PVT_Mug_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.8759718979044708E-2</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="20">
         <f>[1]!PVT_Muw_cP(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.37877177273284574</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="19">
         <f>[1]!PVT_Rhog_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>146.92039526661807</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="19">
         <f>[1]!PVT_Rhow_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.10674093385262</v>
       </c>
-      <c r="K35" s="25">
+      <c r="K35" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>803.44782010599488</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18">
+      <c r="L35" s="28">
+        <f>[1]!PVT_Bg_m3m3(B35,C35,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>7.4693715689981757E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="16">
         <v>200</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="19">
         <f>[1]!PVT_Rs_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="20">
         <f>[1]!PVT_Bo_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1665686441218184</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="19">
         <f>[1]!PVT_Muo_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1936888274451496</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="21">
         <f>[1]!PVT_Mug_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>1.9775208533050367E-2</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="20">
         <f>[1]!PVT_Muw_cP(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.38446219102113038</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="19">
         <f>[1]!PVT_Rhog_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>160.40167071311862</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="19">
         <f>[1]!PVT_Rhow_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>974.71897393020072</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>805.06720691691078</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="18">
+      <c r="L36" s="28">
+        <f>[1]!PVT_Bg_m3m3(B36,C36,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.9331937177080239E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="16">
         <v>220</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="19">
         <f>[1]!PVT_Rs_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="20">
         <f>[1]!PVT_Bo_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1646483928719085</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="19">
         <f>[1]!PVT_Muo_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2503716967253771</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="21">
         <f>[1]!PVT_Mug_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.0853680368474431E-2</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="20">
         <f>[1]!PVT_Muw_cP(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39033287001058364</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="19">
         <f>[1]!PVT_Rhog_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>173.66496493074359</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="19">
         <f>[1]!PVT_Rhow_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>975.37527404707998</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K37" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>806.39458719735023</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="18">
+      <c r="L37" s="28">
+        <f>[1]!PVT_Bg_m3m3(B37,C37,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.521360478155225E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="16">
         <v>240</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="19">
         <f>[1]!PVT_Rs_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="20">
         <f>[1]!PVT_Bo_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1630505982668056</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="19">
         <f>[1]!PVT_Muo_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3110782492038437</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="21">
         <f>[1]!PVT_Mug_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.2031880691004677E-2</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="20">
         <f>[1]!PVT_Muw_cP(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39638380970120551</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="19">
         <f>[1]!PVT_Rhog_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>187.09774311486498</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="19">
         <f>[1]!PVT_Rhow_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.07581782899126</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K38" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>807.50240909514912</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="18">
+      <c r="L38" s="28">
+        <f>[1]!PVT_Bg_m3m3(B38,C38,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.2059473167393438E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="16">
         <v>260</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="19">
         <f>[1]!PVT_Rs_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="20">
         <f>[1]!PVT_Bo_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1617003304572127</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="19">
         <f>[1]!PVT_Muo_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3755153346216826</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="21">
         <f>[1]!PVT_Mug_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.3364019617955738E-2</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="20">
         <f>[1]!PVT_Muw_cP(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.40261501009299605</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="19">
         <f>[1]!PVT_Rhog_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>201.15187114049081</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="19">
         <f>[1]!PVT_Rhow_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>976.82079411420705</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>808.44098549095747</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18">
+      <c r="L39" s="28">
+        <f>[1]!PVT_Bg_m3m3(B39,C39,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.9687012805733205E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="16">
         <v>280</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="19">
         <f>[1]!PVT_Rs_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="20">
         <f>[1]!PVT_Bo_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1605442058167592</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="19">
         <f>[1]!PVT_Muo_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.4433983578380036</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="21">
         <f>[1]!PVT_Mug_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.4918840475639321E-2</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="20">
         <f>[1]!PVT_Muw_cP(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4090264711859552</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="19">
         <f>[1]!PVT_Rhog_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>216.26327456433262</v>
       </c>
-      <c r="J40" s="25">
+      <c r="J40" s="19">
         <f>[1]!PVT_Rhow_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>977.61040416301159</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K40" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>809.24634778477957</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="18">
+      <c r="L40" s="28">
+        <f>[1]!PVT_Bg_m3m3(B40,C40,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.7978309345262944E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="16">
         <v>300</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="19">
         <f>[1]!PVT_Rs_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="20">
         <f>[1]!PVT_Bo_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1595431618574523</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="19">
         <f>[1]!PVT_Muo_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5144431160318284</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="21">
         <f>[1]!PVT_Mug_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.67658219074919E-2</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="20">
         <f>[1]!PVT_Muw_cP(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4156181929800829</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="19">
         <f>[1]!PVT_Rhog_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>232.69276290680091</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="19">
         <f>[1]!PVT_Rhow_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>978.4448617948093</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K41" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>809.9449773784753</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="18">
+      <c r="L41" s="28">
+        <f>[1]!PVT_Bg_m3m3(B41,C41,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.6861678096978641E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="16">
         <v>320</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="19">
         <f>[1]!PVT_Rs_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="20">
         <f>[1]!PVT_Bo_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1586679567294467</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="19">
         <f>[1]!PVT_Muo_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5883604632756589</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="21">
         <f>[1]!PVT_Mug_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>2.8941730482993252E-2</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="20">
         <f>[1]!PVT_Muw_cP(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42239017547537927</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="19">
         <f>[1]!PVT_Rhog_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>250.2854148078772</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="19">
         <f>[1]!PVT_Rhow_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>979.32439353427742</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K42" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>810.5567730128389</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="18">
+      <c r="L42" s="28">
+        <f>[1]!PVT_Bg_m3m3(B42,C42,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.6301271763016872E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="16">
         <v>340</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="19">
         <f>[1]!PVT_Rs_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="20">
         <f>[1]!PVT_Bo_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1578962655147125</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="19">
         <f>[1]!PVT_Muo_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.664853038848376</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="21">
         <f>[1]!PVT_Mug_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.1396089352881809E-2</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="20">
         <f>[1]!PVT_Muw_cP(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42934241867184425</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="19">
         <f>[1]!PVT_Rhog_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>268.24364650507692</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="19">
         <f>[1]!PVT_Rhow_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>980.24923876675155</v>
       </c>
-      <c r="K43" s="25">
+      <c r="K43" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>811.09697644850621</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="18">
+      <c r="L43" s="28">
+        <f>[1]!PVT_Bg_m3m3(B43,C43,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.6291763789979403E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="16">
         <v>360</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="19">
         <f>[1]!PVT_Rs_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="20">
         <f>[1]!PVT_Bo_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1572107492503227</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="19">
         <f>[1]!PVT_Muo_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7436135477735999</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="21">
         <f>[1]!PVT_Mug_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.3947356962223979E-2</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="20">
         <f>[1]!PVT_Muw_cP(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4364749225694779</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="19">
         <f>[1]!PVT_Rhog_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>285.16619689670932</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="19">
         <f>[1]!PVT_Rhow_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>981.21964990304559</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K44" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>811.57745951497702</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="18">
+      <c r="L44" s="28">
+        <f>[1]!PVT_Bg_m3m3(B44,C44,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.6856635886965391E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="16">
         <v>380</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="19">
         <f>[1]!PVT_Rs_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="20">
         <f>[1]!PVT_Bo_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1565977366170115</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="19">
         <f>[1]!PVT_Muo_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8243242351491722</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="21">
         <f>[1]!PVT_Mug_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.6324404400056597E-2</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="20">
         <f>[1]!PVT_Muw_cP(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4437876871682801</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="19">
         <f>[1]!PVT_Rhog_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>299.59908268895049</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="19">
         <f>[1]!PVT_Rhow_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>982.23589255391971</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>812.00760667837062</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="18">
+      <c r="L45" s="28">
+        <f>[1]!PVT_Bg_m3m3(B45,C45,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.8049421044987165E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="16">
         <v>400</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="19">
         <f>[1]!PVT_Rs_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="20">
         <f>[1]!PVT_Bo_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1560463028986281</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="19">
         <f>[1]!PVT_Muo_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9066572909964155</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="21">
         <f>[1]!PVT_Mug_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.8320119695326442E-2</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="20">
         <f>[1]!PVT_Muw_cP(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45128071246825097</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="19">
         <f>[1]!PVT_Rhog_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>310.86737184585337</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="19">
         <f>[1]!PVT_Rhow_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>983.29824571442282</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K46" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>812.39493404820314</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="18">
+      <c r="L46" s="28">
+        <f>[1]!PVT_Bg_m3m3(B46,C46,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>5.9957792629286941E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="16">
         <v>420</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="19">
         <f>[1]!PVT_Rs_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="20">
         <f>[1]!PVT_Bo_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1555476132229627</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="19">
         <f>[1]!PVT_Muo_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9902759828750574</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="21">
         <f>[1]!PVT_Mug_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>3.9920346276124327E-2</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="20">
         <f>[1]!PVT_Muw_cP(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45895399846939039</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="19">
         <f>[1]!PVT_Rhog_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>319.40913278396914</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="19">
         <f>[1]!PVT_Rhow_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>984.4070019583562</v>
       </c>
-      <c r="K47" s="25">
+      <c r="K47" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>812.74553229403625</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="18">
+      <c r="L47" s="28">
+        <f>[1]!PVT_Bg_m3m3(B47,C47,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.2710821000251764E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="16">
         <v>440</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="19">
         <f>[1]!PVT_Rs_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="20">
         <f>[1]!PVT_Bo_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1550944456512144</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="19">
         <f>[1]!PVT_Muo_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.0748363530066074</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="21">
         <f>[1]!PVT_Mug_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.1258506084948812E-2</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="20">
         <f>[1]!PVT_Muw_cP(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.46680754517169848</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="19">
         <f>[1]!PVT_Rhog_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>326.24643799736418</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="19">
         <f>[1]!PVT_Rhow_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>985.56246764310936</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K48" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.06438926777173</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="18">
+      <c r="L48" s="28">
+        <f>[1]!PVT_Bg_m3m3(B48,C48,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>6.6490148923786987E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="16">
         <v>460</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="16">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="19">
         <f>[1]!PVT_Rs_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>80</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="20">
         <f>[1]!PVT_Bo_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1546808391657513</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="19">
         <f>[1]!PVT_Muo_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.1599893433307571</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="21">
         <f>[1]!PVT_Mug_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Pb_,Bob_,muob_)</f>
         <v>4.2474321382086427E-2</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="20">
         <f>[1]!PVT_Muw_cP(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.47484135257517518</v>
       </c>
-      <c r="I49" s="25">
+      <c r="I49" s="19">
         <f>[1]!PVT_Rhog_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>332.23566990834644</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="19">
         <f>[1]!PVT_Rhow_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>986.76496312514394</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K49" s="19">
         <f>[1]!PVT_Rhoo_kgm3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>813.35562879742679</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
+      <c r="L49" s="28">
+        <f>[1]!PVT_Bg_m3m3(B49,C49,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,0,,,,PVT_str_)</f>
+        <v>7.1546350797342066E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K108" t="s">
         <v>134</v>
